--- a/FirstProject/Global Data Repositories/61330c1a-6cfd-412d-a5d2-cb6ffae5e9e1.xlsx
+++ b/FirstProject/Global Data Repositories/61330c1a-6cfd-412d-a5d2-cb6ffae5e9e1.xlsx
@@ -70,6 +70,9 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" ht="16" customHeight="1"/>
     <row r="3" ht="16" customHeight="1"/>

--- a/FirstProject/Global Data Repositories/61330c1a-6cfd-412d-a5d2-cb6ffae5e9e1.xlsx
+++ b/FirstProject/Global Data Repositories/61330c1a-6cfd-412d-a5d2-cb6ffae5e9e1.xlsx
@@ -12,9 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>hi</t>
+  </si>
+  <si>
+    <t>hello</t>
   </si>
 </sst>
 </file>
@@ -73,6 +76,9 @@
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" ht="16" customHeight="1"/>
     <row r="3" ht="16" customHeight="1"/>

--- a/FirstProject/Global Data Repositories/61330c1a-6cfd-412d-a5d2-cb6ffae5e9e1.xlsx
+++ b/FirstProject/Global Data Repositories/61330c1a-6cfd-412d-a5d2-cb6ffae5e9e1.xlsx
@@ -12,12 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>hi</t>
   </si>
   <si>
     <t>hello</t>
+  </si>
+  <si>
+    <t>hmqsncd</t>
   </si>
 </sst>
 </file>
@@ -79,6 +82,9 @@
       <c r="C1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" ht="16" customHeight="1"/>
     <row r="3" ht="16" customHeight="1"/>

--- a/FirstProject/Global Data Repositories/61330c1a-6cfd-412d-a5d2-cb6ffae5e9e1.xlsx
+++ b/FirstProject/Global Data Repositories/61330c1a-6cfd-412d-a5d2-cb6ffae5e9e1.xlsx
@@ -20,7 +20,7 @@
     <t>hello</t>
   </si>
   <si>
-    <t>hmqsncd</t>
+    <t>dfsd</t>
   </si>
 </sst>
 </file>
